--- a/Assets/Tables/spiritExp.xlsx
+++ b/Assets/Tables/spiritExp.xlsx
@@ -5,16 +5,16 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Document\ProjectM\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\godd7\Desktop\Study\Github\ProjectM\Assets\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D0D1FE6-1936-4AC7-BE1D-17E83033D447}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AF32C14-7D58-469C-804F-33B07CB0B170}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3585" yWindow="450" windowWidth="20910" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="480" windowWidth="16440" windowHeight="28440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="SpiritExp" sheetId="4" r:id="rId1"/>
-    <sheet name="~참고타입" sheetId="6" r:id="rId2"/>
+    <sheet name="spiritExp" sheetId="4" r:id="rId1"/>
+    <sheet name="_참고타입" sheetId="6" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -43,80 +43,82 @@
     <t>MagicGirl</t>
   </si>
   <si>
-    <t>Level</t>
-  </si>
-  <si>
     <t>None</t>
   </si>
   <si>
-    <t>MaxExp</t>
-  </si>
-  <si>
-    <t>Grade</t>
+    <t>CastType</t>
+  </si>
+  <si>
+    <t>ClassType</t>
+  </si>
+  <si>
+    <t>GenderType</t>
+  </si>
+  <si>
+    <t>AttackType</t>
+  </si>
+  <si>
+    <t>HealType</t>
+  </si>
+  <si>
+    <t>Asexual</t>
+  </si>
+  <si>
+    <t>적 타겟</t>
+  </si>
+  <si>
+    <t>공격 안함</t>
+  </si>
+  <si>
+    <t>회복 안함</t>
+  </si>
+  <si>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>아군 타겟</t>
+  </si>
+  <si>
+    <t>단일 공격</t>
+  </si>
+  <si>
+    <t>단일 회복</t>
+  </si>
+  <si>
+    <t>Warrior</t>
+  </si>
+  <si>
+    <t>타겟 없음</t>
+  </si>
+  <si>
+    <t>광역 공격</t>
+  </si>
+  <si>
+    <t>광역 회복</t>
+  </si>
+  <si>
+    <t>콤보 공격</t>
+  </si>
+  <si>
+    <t>콤보 회복</t>
+  </si>
+  <si>
+    <t>무작위 공격</t>
+  </si>
+  <si>
+    <t>무작위 회복</t>
+  </si>
+  <si>
+    <t>grade</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>CastType</t>
-  </si>
-  <si>
-    <t>ClassType</t>
-  </si>
-  <si>
-    <t>GenderType</t>
-  </si>
-  <si>
-    <t>AttackType</t>
-  </si>
-  <si>
-    <t>HealType</t>
-  </si>
-  <si>
-    <t>Asexual</t>
-  </si>
-  <si>
-    <t>적 타겟</t>
-  </si>
-  <si>
-    <t>공격 안함</t>
-  </si>
-  <si>
-    <t>회복 안함</t>
-  </si>
-  <si>
-    <t>Male</t>
-  </si>
-  <si>
-    <t>아군 타겟</t>
-  </si>
-  <si>
-    <t>단일 공격</t>
-  </si>
-  <si>
-    <t>단일 회복</t>
-  </si>
-  <si>
-    <t>Warrior</t>
-  </si>
-  <si>
-    <t>타겟 없음</t>
-  </si>
-  <si>
-    <t>광역 공격</t>
-  </si>
-  <si>
-    <t>광역 회복</t>
-  </si>
-  <si>
-    <t>콤보 공격</t>
-  </si>
-  <si>
-    <t>콤보 회복</t>
-  </si>
-  <si>
-    <t>무작위 공격</t>
-  </si>
-  <si>
-    <t>무작위 회복</t>
+    <t>level</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>maxExp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -443,21 +445,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2835528E-6D12-4571-90ED-10ED64BB34D0}">
   <dimension ref="A2:C62"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -1130,7 +1132,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0DC92A6-9D01-4454-BB5C-87637A94390D}">
   <dimension ref="A1:J7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
@@ -1150,30 +1152,30 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" t="s">
         <v>10</v>
-      </c>
-      <c r="C1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I1" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B2">
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -1182,19 +1184,19 @@
         <v>0</v>
       </c>
       <c r="F2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
@@ -1205,7 +1207,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D3">
         <v>2</v>
@@ -1214,24 +1216,24 @@
         <v>1</v>
       </c>
       <c r="F3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="H3" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I3">
         <v>1</v>
       </c>
       <c r="J3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B4">
         <v>2</v>
@@ -1246,19 +1248,19 @@
         <v>2</v>
       </c>
       <c r="F4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="G4">
         <v>2</v>
       </c>
       <c r="H4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="I4">
         <v>2</v>
       </c>
       <c r="J4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
@@ -1272,13 +1274,13 @@
         <v>3</v>
       </c>
       <c r="H5" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="I5">
         <v>3</v>
       </c>
       <c r="J5" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
@@ -1292,13 +1294,13 @@
         <v>4</v>
       </c>
       <c r="H6" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="I6">
         <v>4</v>
       </c>
       <c r="J6" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
